--- a/事件流.xlsx
+++ b/事件流.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AMLauncherEventType" sheetId="1" r:id="rId1"/>
     <sheet name="RMAppAttemptEventType" sheetId="2" r:id="rId2"/>
+    <sheet name="NodeManagerEventType" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>LAUNCH</t>
   </si>
@@ -39,60 +40,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AMLauncherEventType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>KILL</t>
+  </si>
+  <si>
+    <t>LAUNCHED</t>
+  </si>
+  <si>
+    <t>LAUNCH_FAILED</t>
+  </si>
+  <si>
+    <t>EXPIRE</t>
+  </si>
+  <si>
+    <t>REGISTERED</t>
+  </si>
+  <si>
+    <t>STATUS_UPDATE</t>
+  </si>
+  <si>
+    <t>UNREGISTERED</t>
+  </si>
+  <si>
+    <t>CONTAINER_ALLOCATED</t>
+  </si>
+  <si>
+    <t>CONTAINER_FINISHED</t>
+  </si>
+  <si>
+    <t>ATTEMPT_NEW_SAVED</t>
+  </si>
+  <si>
+    <t>ATTEMPT_UPDATE_SAVED</t>
+  </si>
+  <si>
+    <t>ATTEMPT_ADDED</t>
+  </si>
+  <si>
+    <t>RECOVER</t>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMLauncher.LAUNCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHUTDOWN</t>
+  </si>
+  <si>
+    <t>RESYNC</t>
+  </si>
+  <si>
+    <t>NodeManagerEventType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeStatusUpdaterImpl.startStatusUpdater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeStatusUpdaterImpl.startStatusUpdater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即在nodeManager中会定期向yarn发送请求,一旦yarn回复给他说他要shutdown该节点或者重新同步该节点时,触发该事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeManager处理该事件逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RMAppAttemptEventType</t>
-  </si>
-  <si>
-    <t>AMLauncherEventType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>KILL</t>
-  </si>
-  <si>
-    <t>LAUNCHED</t>
-  </si>
-  <si>
-    <t>LAUNCH_FAILED</t>
-  </si>
-  <si>
-    <t>EXPIRE</t>
-  </si>
-  <si>
-    <t>REGISTERED</t>
-  </si>
-  <si>
-    <t>STATUS_UPDATE</t>
-  </si>
-  <si>
-    <t>UNREGISTERED</t>
-  </si>
-  <si>
-    <t>CONTAINER_ALLOCATED</t>
-  </si>
-  <si>
-    <t>CONTAINER_FINISHED</t>
-  </si>
-  <si>
-    <t>ATTEMPT_NEW_SAVED</t>
-  </si>
-  <si>
-    <t>ATTEMPT_UPDATE_SAVED</t>
-  </si>
-  <si>
-    <t>ATTEMPT_ADDED</t>
-  </si>
-  <si>
-    <t>RECOVER</t>
-  </si>
-  <si>
-    <t>事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMLauncher.LAUNCH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -456,12 +484,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -497,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,12 +539,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -524,78 +552,133 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/事件流.xlsx
+++ b/事件流.xlsx
@@ -526,7 +526,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
